--- a/UCSD_ECE111/project_5_2/summary.xlsx
+++ b/UCSD_ECE111/project_5_2/summary.xlsx
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,28 +1089,28 @@
         <v>21</v>
       </c>
       <c r="G2" s="6">
-        <v>13535</v>
+        <v>15710</v>
       </c>
       <c r="H2" s="6">
-        <v>21090</v>
+        <v>21072</v>
       </c>
       <c r="I2" s="9">
         <f>G2+H2</f>
-        <v>34625</v>
+        <v>36782</v>
       </c>
       <c r="J2" s="6">
-        <v>156.47</v>
+        <v>157.26</v>
       </c>
       <c r="K2" s="6">
         <v>222</v>
       </c>
       <c r="L2" s="10">
         <f>K2/J2</f>
-        <v>1.4188023263245351</v>
+        <v>1.411674933231591</v>
       </c>
       <c r="M2" s="10">
         <f>I2*L2/1000</f>
-        <v>49.126030548987032</v>
+        <v>51.924227394124379</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1133,28 +1133,28 @@
         <v>22</v>
       </c>
       <c r="G3" s="6">
-        <v>13535</v>
+        <v>15710</v>
       </c>
       <c r="H3" s="6">
-        <v>21090</v>
+        <v>21072</v>
       </c>
       <c r="I3" s="9">
         <f>G3+H3</f>
-        <v>34625</v>
+        <v>36782</v>
       </c>
       <c r="J3" s="6">
-        <v>156.47</v>
+        <v>157.26</v>
       </c>
       <c r="K3" s="6">
         <v>222</v>
       </c>
       <c r="L3" s="10">
         <f>K3/J3</f>
-        <v>1.4188023263245351</v>
+        <v>1.411674933231591</v>
       </c>
       <c r="M3" s="10">
         <f>I3*L3/1000</f>
-        <v>49.126030548987032</v>
+        <v>51.924227394124379</v>
       </c>
     </row>
   </sheetData>

--- a/UCSD_ECE111/project_5_2/summary.xlsx
+++ b/UCSD_ECE111/project_5_2/summary.xlsx
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,28 +1089,28 @@
         <v>21</v>
       </c>
       <c r="G2" s="6">
-        <v>15710</v>
+        <v>19990</v>
       </c>
       <c r="H2" s="6">
-        <v>21072</v>
+        <v>21067</v>
       </c>
       <c r="I2" s="9">
         <f>G2+H2</f>
-        <v>36782</v>
+        <v>41057</v>
       </c>
       <c r="J2" s="6">
-        <v>157.26</v>
+        <v>158.38</v>
       </c>
       <c r="K2" s="6">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L2" s="10">
         <f>K2/J2</f>
-        <v>1.411674933231591</v>
+        <v>1.3953782043187271</v>
       </c>
       <c r="M2" s="10">
         <f>I2*L2/1000</f>
-        <v>51.924227394124379</v>
+        <v>57.290042934713981</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1133,28 +1133,28 @@
         <v>22</v>
       </c>
       <c r="G3" s="6">
-        <v>15710</v>
+        <v>19990</v>
       </c>
       <c r="H3" s="6">
-        <v>21072</v>
+        <v>21067</v>
       </c>
       <c r="I3" s="9">
         <f>G3+H3</f>
-        <v>36782</v>
+        <v>41057</v>
       </c>
       <c r="J3" s="6">
-        <v>157.26</v>
+        <v>158.38</v>
       </c>
       <c r="K3" s="6">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L3" s="10">
         <f>K3/J3</f>
-        <v>1.411674933231591</v>
+        <v>1.3953782043187271</v>
       </c>
       <c r="M3" s="10">
         <f>I3*L3/1000</f>
-        <v>51.924227394124379</v>
+        <v>57.290042934713981</v>
       </c>
     </row>
   </sheetData>
